--- a/guardian-service/artifacts/template.xlsx
+++ b/guardian-service/artifacts/template.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D198E103-737C-45CD-A926-33BB8BBD7D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DFC548-E813-4CBF-B2EF-A7D00D232C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="420" windowWidth="29835" windowHeight="19695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15090" yWindow="0" windowWidth="30270" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema name" sheetId="13" r:id="rId1"/>
-    <sheet name="Enum name (enum)" sheetId="35" r:id="rId2"/>
+    <sheet name="Sub-schema name" sheetId="37" r:id="rId2"/>
+    <sheet name="Enum name (enum)" sheetId="35" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -240,6 +241,9 @@
   </si>
   <si>
     <t>Sub schema</t>
+  </si>
+  <si>
+    <t>Sub-Schema</t>
   </si>
 </sst>
 </file>
@@ -250,7 +254,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;kg&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +282,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -387,17 +399,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,8 +441,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,7 +795,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -795,67 +809,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -887,7 +901,7 @@
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="3"/>
@@ -1217,7 +1231,7 @@
       <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="3"/>
@@ -1227,7 +1241,7 @@
       <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1252,7 @@
       <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="3"/>
@@ -1248,7 +1262,7 @@
       <c r="F24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1259,7 +1273,7 @@
       <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
         <v>64</v>
@@ -1267,7 +1281,7 @@
       <c r="F25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1278,7 +1292,7 @@
       <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="3" t="b">
         <f>EXACT(G7,"Option 1")</f>
         <v>1</v>
@@ -1300,7 +1314,7 @@
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="3" t="b">
         <f>NOT(EXACT(G7,"Option 1"))</f>
         <v>0</v>
@@ -1322,7 +1336,7 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="3" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1357,7 @@
       <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>69</v>
@@ -1360,7 +1374,7 @@
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1378,40 +1392,40 @@
       </c>
     </row>
     <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="5" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="F31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="5" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1435,8 +1449,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C7" location="#'Select the applicable p (enum)'!A3" display="Select the applicable p (enum)" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="B30" location="#'Type III Other project  (tool)'!A1" display="Type III Other project  (tool)" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="C7" location="'Enum name (enum)'!A1" display="Enum name (enum)" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B30" location="'Sub-schema name'!A1" display="Sub-schema name" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1456,15 +1470,162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F8C76A-97E0-4C27-8A29-4D105A69DA05}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="70" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G3" xr:uid="{3F7320B1-9173-40CC-A610-D407DF1599BD}">
+      <formula1>"Verifiable Credentials,Encrypted Verifiable Credential,Sub-Schema"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 F7" xr:uid="{39C9218B-073E-426F-ADD0-99E4D7008C18}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1473,38 +1634,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/guardian-service/artifacts/template.xlsx
+++ b/guardian-service/artifacts/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DFC548-E813-4CBF-B2EF-A7D00D232C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B765236-ADD9-4907-9009-2D87EA2E1339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15090" yWindow="0" windowWidth="30270" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13890" yWindow="15" windowWidth="27630" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema name" sheetId="13" r:id="rId1"/>
@@ -432,6 +432,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,13 +444,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -795,7 +795,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -809,67 +809,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -901,7 +901,7 @@
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="3"/>
@@ -1370,11 +1370,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1410,7 +1410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -1491,67 +1491,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1650,22 +1650,22 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/guardian-service/artifacts/template.xlsx
+++ b/guardian-service/artifacts/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B765236-ADD9-4907-9009-2D87EA2E1339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523EE085-0EB9-41C6-B7B6-516CD5852449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="15" windowWidth="27630" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13890" yWindow="15" windowWidth="29085" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema name" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -228,9 +228,6 @@
     <t>0.0.1</t>
   </si>
   <si>
-    <t>Example condition</t>
-  </si>
-  <si>
     <t>Hidden field</t>
   </si>
   <si>
@@ -244,6 +241,18 @@
   </si>
   <si>
     <t>Sub-Schema</t>
+  </si>
+  <si>
+    <t>Sub-Field 1</t>
+  </si>
+  <si>
+    <t>Sub-Field 2</t>
+  </si>
+  <si>
+    <t>Example condition 1</t>
+  </si>
+  <si>
+    <t>Example condition 2</t>
   </si>
 </sst>
 </file>
@@ -795,7 +804,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>13</v>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>13</v>
@@ -1341,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>13</v>
@@ -1355,12 +1364,12 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>13</v>
@@ -1382,7 +1391,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>13</v>
@@ -1401,7 +1410,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="11"/>
       <c r="E31" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -1420,7 +1429,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="11"/>
       <c r="E32" s="4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>10</v>
@@ -1474,10 +1483,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1588,13 +1597,34 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1639,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G3" xr:uid="{3F7320B1-9173-40CC-A610-D407DF1599BD}">
       <formula1>"Verifiable Credentials,Encrypted Verifiable Credential,Sub-Schema"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 F7" xr:uid="{39C9218B-073E-426F-ADD0-99E4D7008C18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 F7:F8" xr:uid="{39C9218B-073E-426F-ADD0-99E4D7008C18}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/guardian-service/artifacts/template.xlsx
+++ b/guardian-service/artifacts/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DFC548-E813-4CBF-B2EF-A7D00D232C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523EE085-0EB9-41C6-B7B6-516CD5852449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15090" yWindow="0" windowWidth="30270" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13890" yWindow="15" windowWidth="29085" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema name" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -228,9 +228,6 @@
     <t>0.0.1</t>
   </si>
   <si>
-    <t>Example condition</t>
-  </si>
-  <si>
     <t>Hidden field</t>
   </si>
   <si>
@@ -244,6 +241,18 @@
   </si>
   <si>
     <t>Sub-Schema</t>
+  </si>
+  <si>
+    <t>Sub-Field 1</t>
+  </si>
+  <si>
+    <t>Sub-Field 2</t>
+  </si>
+  <si>
+    <t>Example condition 1</t>
+  </si>
+  <si>
+    <t>Example condition 2</t>
   </si>
 </sst>
 </file>
@@ -432,6 +441,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,13 +453,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -795,7 +804,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -809,67 +818,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -901,7 +910,7 @@
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="3"/>
@@ -1298,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>13</v>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>13</v>
@@ -1341,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>13</v>
@@ -1355,12 +1364,12 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>13</v>
@@ -1370,11 +1379,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1382,7 +1391,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>13</v>
@@ -1401,7 +1410,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="11"/>
       <c r="E31" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -1410,7 +1419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -1420,7 +1429,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="11"/>
       <c r="E32" s="4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>10</v>
@@ -1474,10 +1483,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,67 +1500,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1588,13 +1597,34 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1639,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G3" xr:uid="{3F7320B1-9173-40CC-A610-D407DF1599BD}">
       <formula1>"Verifiable Credentials,Encrypted Verifiable Credential,Sub-Schema"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 F7" xr:uid="{39C9218B-073E-426F-ADD0-99E4D7008C18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 F7:F8" xr:uid="{39C9218B-073E-426F-ADD0-99E4D7008C18}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1650,22 +1680,22 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
